--- a/settings/zh-CN/template_blueprints.xlsx
+++ b/settings/zh-CN/template_blueprints.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\projects\game_mod\against_storm\export_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\projects\game_mod\against_storm\export_analysis\settings\zh-CN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9776FCDA-C2B5-4D19-8700-5EDE46F8578F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E44DAE-7A52-4851-888E-072233458F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
   <si>
     <t>蓝图机制</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -268,10 +268,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>最终看到的选项</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -297,6 +293,14 @@
   </si>
   <si>
     <t>https://github.com/Forwindzz/ATSUnpackToExcel</t>
+  </si>
+  <si>
+    <t>m0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新游戏1.5版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -687,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L69"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -732,13 +736,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H3">
-        <v>1.4</v>
-      </c>
-      <c r="I3" t="s">
-        <v>61</v>
+        <v>1.5</v>
+      </c>
+      <c r="I3">
+        <v>0.2</v>
       </c>
       <c r="J3" s="1">
-        <v>45596</v>
+        <v>45631</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -746,12 +750,12 @@
         <v>4</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -923,7 +927,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -963,7 +967,7 @@
         <v>48</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -983,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -1000,7 +1004,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -1017,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -1037,10 +1041,10 @@
         <v>1</v>
       </c>
       <c r="G48" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H48" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -1057,13 +1061,13 @@
         <v>0</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -1080,13 +1084,13 @@
         <v>1</v>
       </c>
       <c r="G50" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I50" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
@@ -1106,21 +1110,21 @@
         <v>1</v>
       </c>
       <c r="G51" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J51" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="J51" s="5" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -1135,16 +1139,16 @@
         <v>2</v>
       </c>
       <c r="G52" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I52" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H52" s="6" t="s">
+      <c r="J52" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -1190,6 +1194,16 @@
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
